--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2238078.501017915</v>
+        <v>-2240076.17403076</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>719469.6759703124</v>
+        <v>826517.6563498597</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -659,22 +659,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>151.6118455133497</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>13.26647970350126</v>
+        <v>279.594871960156</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -713,7 +713,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -722,10 +722,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>49.44807401731671</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -753,7 +753,7 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H3" t="n">
-        <v>104.3883541553076</v>
+        <v>104.3883541553073</v>
       </c>
       <c r="I3" t="n">
         <v>61.42221998250818</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>54.47555601903363</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -874,7 +874,7 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>54.47555601903363</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -893,28 +893,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -941,25 +941,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>58.52890401145044</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>64.97237537407972</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1057,7 +1057,7 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>12.53317060717011</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>127.0044127072327</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>43.37721679582158</v>
+        <v>245.3082439643349</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,7 +1178,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1193,13 +1193,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I9" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S9" t="n">
         <v>156.5912426325231</v>
@@ -1333,28 +1333,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>230.2634979541059</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>126.3298627762798</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H11" t="n">
-        <v>305.2872491113177</v>
+        <v>305.287249111317</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505273959</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>411.9645167896912</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
         <v>305.2872491113177</v>
@@ -1768,7 +1768,7 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>33.35146980185857</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -1828,7 +1828,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>33.35146980185857</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274049</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T17" t="n">
         <v>208.4827883385019</v>
@@ -1941,7 +1941,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I18" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2053,19 +2053,19 @@
         <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>66.90445977359191</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>36.31437750815302</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2096,7 +2096,7 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H20" t="n">
-        <v>305.2872491113183</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I20" t="n">
         <v>81.77913505274074</v>
@@ -2239,10 +2239,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>51.80232600720534</v>
       </c>
       <c r="S22" t="n">
-        <v>39.11561436815803</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>221.5475610583892</v>
@@ -2305,7 +2305,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T23" t="n">
         <v>208.4827883385019</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2488,13 +2488,13 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373693</v>
       </c>
       <c r="H25" t="n">
         <v>80.78193823789546</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463105</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415232</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2530,7 +2530,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U25" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V25" t="n">
         <v>184.0057531941873</v>
@@ -2567,13 +2567,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>411.9645167896903</v>
+        <v>411.9645167896915</v>
       </c>
       <c r="H26" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I26" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2652,7 +2652,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I27" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2725,13 +2725,13 @@
         <v>77.28915789329056</v>
       </c>
       <c r="G28" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H28" t="n">
         <v>80.78193823789545</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463189</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2761,13 +2761,13 @@
         <v>41.83246227415212</v>
       </c>
       <c r="S28" t="n">
-        <v>129.7889198539625</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T28" t="n">
         <v>153.4156709287486</v>
       </c>
       <c r="U28" t="n">
-        <v>218.1054622689368</v>
+        <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
         <v>184.0057531941873</v>
@@ -2846,7 +2846,7 @@
         <v>208.4827883385019</v>
       </c>
       <c r="U29" t="n">
-        <v>251.078595249801</v>
+        <v>251.0785952497999</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2950,25 +2950,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898714</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857166</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692848</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329055</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373689</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H31" t="n">
-        <v>80.7819382378954</v>
+        <v>80.78193823789512</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S31" t="n">
         <v>129.7889198539626</v>
@@ -3004,7 +3004,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U31" t="n">
-        <v>218.105462268937</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V31" t="n">
         <v>184.0057531941873</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505273781</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3092,7 +3092,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
-        <v>369.7311006784677</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
         <v>386.2379386560536</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3187,25 +3187,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898714</v>
       </c>
       <c r="D34" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857166</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692848</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329055</v>
       </c>
       <c r="G34" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373689</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789543</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415212</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3241,7 +3241,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U34" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V34" t="n">
         <v>184.0057531941873</v>
@@ -3329,7 +3329,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>369.7311006784694</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
         <v>386.2379386560536</v>
@@ -3363,7 +3363,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I36" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3436,7 +3436,7 @@
         <v>77.28915789329058</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373693</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H37" t="n">
         <v>80.78193823789546</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415214</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3478,7 +3478,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U37" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689361</v>
       </c>
       <c r="V37" t="n">
         <v>184.0057531941873</v>
@@ -3515,7 +3515,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896903</v>
       </c>
       <c r="H38" t="n">
         <v>305.2872491113177</v>
@@ -3600,7 +3600,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I39" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898718</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D40" t="n">
-        <v>80.4835828885717</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692852</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329059</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H40" t="n">
-        <v>80.78193823789547</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463124</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3715,7 +3715,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U40" t="n">
-        <v>218.1054622689365</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V40" t="n">
         <v>184.0057531941873</v>
@@ -3837,7 +3837,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I42" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014446</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3898,25 +3898,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.11493096898717</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857169</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.3020725169285</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329058</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373692</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789546</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463131</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U43" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689365</v>
       </c>
       <c r="V43" t="n">
         <v>184.0057531941873</v>
@@ -3995,7 +3995,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I44" t="n">
-        <v>81.7791350527408</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4074,7 +4074,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I45" t="n">
-        <v>27.90133207014445</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4189,7 +4189,7 @@
         <v>153.4156709287486</v>
       </c>
       <c r="U46" t="n">
-        <v>218.1054622689363</v>
+        <v>218.1054622689368</v>
       </c>
       <c r="V46" t="n">
         <v>184.0057531941873</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>589.4492616060802</v>
+        <v>1049.345016968622</v>
       </c>
       <c r="C2" t="n">
-        <v>220.4867446656685</v>
+        <v>1049.345016968622</v>
       </c>
       <c r="D2" t="n">
-        <v>67.34346636935562</v>
+        <v>1049.345016968622</v>
       </c>
       <c r="E2" t="n">
-        <v>67.34346636935562</v>
+        <v>663.5567643703778</v>
       </c>
       <c r="F2" t="n">
-        <v>67.34346636935562</v>
+        <v>663.5567643703778</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H2" t="n">
         <v>53.94298182036445</v>
@@ -4361,19 +4361,19 @@
         <v>2423.485734520778</v>
       </c>
       <c r="U2" t="n">
-        <v>2423.485734520778</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V2" t="n">
-        <v>2092.422847177208</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W2" t="n">
-        <v>1739.654191907093</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X2" t="n">
-        <v>1366.188433646014</v>
+        <v>1435.944857032744</v>
       </c>
       <c r="Y2" t="n">
-        <v>976.0491016702019</v>
+        <v>1435.944857032744</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692486</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,7 +4410,7 @@
         <v>53.94298182036445</v>
       </c>
       <c r="K3" t="n">
-        <v>266.206002764199</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L3" t="n">
         <v>670.8219208598708</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,7 +4462,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="C4" t="n">
         <v>53.94298182036445</v>
@@ -4522,16 +4522,16 @@
         <v>108.9687959810045</v>
       </c>
       <c r="V4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="W4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="X4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
       <c r="Y4" t="n">
-        <v>53.94298182036445</v>
+        <v>108.9687959810045</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1001.280783616703</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="C5" t="n">
-        <v>632.3182666762914</v>
+        <v>1164.312709242129</v>
       </c>
       <c r="D5" t="n">
-        <v>632.3182666762914</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="E5" t="n">
-        <v>632.3182666762914</v>
+        <v>806.0470106353782</v>
       </c>
       <c r="F5" t="n">
-        <v>625.3727659270879</v>
+        <v>395.0611058457707</v>
       </c>
       <c r="G5" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H5" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4568,16 +4568,16 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224081</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4589,28 +4589,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2520.971603332393</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U5" t="n">
-        <v>2461.851498270321</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V5" t="n">
-        <v>2130.788610926751</v>
+        <v>1927.91779947902</v>
       </c>
       <c r="W5" t="n">
-        <v>1778.019955656637</v>
+        <v>1927.91779947902</v>
       </c>
       <c r="X5" t="n">
-        <v>1778.019955656637</v>
+        <v>1554.45204121794</v>
       </c>
       <c r="Y5" t="n">
-        <v>1387.880623680825</v>
+        <v>1164.312709242129</v>
       </c>
     </row>
     <row r="6">
@@ -4699,10 +4699,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D7" t="n">
         <v>53.94298182036445</v>
@@ -4747,28 +4747,28 @@
         <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>686.0522967699853</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>686.0522967699853</v>
+        <v>570.4247794971948</v>
       </c>
       <c r="T7" t="n">
-        <v>458.7441094385871</v>
+        <v>343.1165921657965</v>
       </c>
       <c r="U7" t="n">
-        <v>458.7441094385871</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="V7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y7" t="n">
-        <v>204.0596212327002</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1061.921889775366</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="C8" t="n">
-        <v>1061.921889775366</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="D8" t="n">
-        <v>1018.106519274536</v>
+        <v>864.6405432696254</v>
       </c>
       <c r="E8" t="n">
-        <v>632.3182666762914</v>
+        <v>478.8522906713811</v>
       </c>
       <c r="F8" t="n">
-        <v>625.3727659270879</v>
+        <v>67.86638588177355</v>
       </c>
       <c r="G8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H8" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533143</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733128</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4841,13 +4841,13 @@
         <v>1838.661061815299</v>
       </c>
       <c r="W8" t="n">
-        <v>1838.661061815299</v>
+        <v>1485.892406545185</v>
       </c>
       <c r="X8" t="n">
-        <v>1838.661061815299</v>
+        <v>1112.426648284105</v>
       </c>
       <c r="Y8" t="n">
-        <v>1448.521729839487</v>
+        <v>1112.426648284105</v>
       </c>
     </row>
     <row r="9">
@@ -4881,10 +4881,10 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
-        <v>266.2060027641994</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L9" t="n">
         <v>670.8219208598713</v>
@@ -4981,25 +4981,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R10" t="n">
-        <v>728.1289842064342</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S10" t="n">
-        <v>513.8405610245969</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T10" t="n">
-        <v>286.5323736931987</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U10" t="n">
-        <v>53.94298182036445</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="V10" t="n">
-        <v>53.94298182036445</v>
+        <v>409.5384547146241</v>
       </c>
       <c r="W10" t="n">
-        <v>53.94298182036445</v>
+        <v>281.9325327183818</v>
       </c>
       <c r="X10" t="n">
         <v>53.94298182036445</v>
@@ -5018,46 +5018,46 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D11" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
-        <v>488.1932370805458</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H11" t="n">
-        <v>179.822278382245</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I11" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K11" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M11" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515098</v>
       </c>
       <c r="N11" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619129</v>
       </c>
       <c r="O11" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P11" t="n">
-        <v>4454.632848899127</v>
+        <v>4454.632848899128</v>
       </c>
       <c r="Q11" t="n">
         <v>4801.62743720783</v>
@@ -5066,22 +5066,22 @@
         <v>4860.854573014292</v>
       </c>
       <c r="S11" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T11" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U11" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
         <v>2814.921224614724</v>
@@ -5127,7 +5127,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="M12" t="n">
-        <v>323.6581146605672</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N12" t="n">
         <v>1128.069692924718</v>
@@ -5200,19 +5200,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K13" t="n">
-        <v>259.7851881688071</v>
+        <v>259.7851881688072</v>
       </c>
       <c r="L13" t="n">
-        <v>507.4972331799363</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M13" t="n">
-        <v>779.0639759471189</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N13" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O13" t="n">
-        <v>1283.483062980063</v>
+        <v>1283.483062980064</v>
       </c>
       <c r="P13" t="n">
         <v>1460.082827585746</v>
@@ -5258,28 +5258,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F14" t="n">
-        <v>904.3190116155886</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G14" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I14" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J14" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5361,10 +5361,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L15" t="n">
-        <v>323.6581146605672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M15" t="n">
-        <v>323.6581146605672</v>
+        <v>783.5490372870998</v>
       </c>
       <c r="N15" t="n">
         <v>1128.069692924718</v>
@@ -5410,10 +5410,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="C16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="D16" t="n">
         <v>97.21709146028584</v>
@@ -5476,10 +5476,10 @@
         <v>130.9054447954965</v>
       </c>
       <c r="X16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
       <c r="Y16" t="n">
-        <v>97.21709146028584</v>
+        <v>130.9054447954965</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C17" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D17" t="n">
         <v>1701.09316900344</v>
@@ -5501,22 +5501,22 @@
         <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.3190116155886</v>
+        <v>904.3190116155887</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805467</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H17" t="n">
-        <v>179.8222783822459</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I17" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
-        <v>365.881333182379</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795207</v>
@@ -5528,7 +5528,7 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O17" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
         <v>4454.632848899127</v>
@@ -5546,16 +5546,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U17" t="n">
-        <v>4262.357857465301</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V17" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W17" t="n">
-        <v>3578.526314851616</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X17" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y17" t="n">
         <v>2814.921224614724</v>
@@ -5598,10 +5598,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="L18" t="n">
-        <v>327.180197328635</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M18" t="n">
-        <v>647.5155168583368</v>
+        <v>323.6581146605672</v>
       </c>
       <c r="N18" t="n">
         <v>1128.069692924718</v>
@@ -5701,16 +5701,16 @@
         <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>964.135741824786</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="U19" t="n">
-        <v>675.0071030383442</v>
+        <v>898.7925182488382</v>
       </c>
       <c r="V19" t="n">
-        <v>607.4268406407766</v>
+        <v>644.1080300429513</v>
       </c>
       <c r="W19" t="n">
-        <v>318.0096706038159</v>
+        <v>354.6908600059907</v>
       </c>
       <c r="X19" t="n">
         <v>318.0096706038159</v>
@@ -5726,10 +5726,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C20" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D20" t="n">
         <v>1701.093169003441</v>
@@ -5738,22 +5738,22 @@
         <v>1315.304916405197</v>
       </c>
       <c r="F20" t="n">
-        <v>904.3190116155895</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G20" t="n">
-        <v>488.1932370805476</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H20" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I20" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K20" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L20" t="n">
         <v>1590.888347795206</v>
@@ -5762,7 +5762,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N20" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O20" t="n">
         <v>3889.732883643323</v>
@@ -5771,31 +5771,31 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S20" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T20" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U20" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V20" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W20" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y20" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="21">
@@ -5826,22 +5826,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L21" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M21" t="n">
-        <v>404.5372247402476</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N21" t="n">
-        <v>1208.948803004398</v>
+        <v>1128.069692924718</v>
       </c>
       <c r="O21" t="n">
         <v>1797.533454227377</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="C22" t="n">
-        <v>97.21709146028587</v>
+        <v>247.3337308726216</v>
       </c>
       <c r="D22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="E22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="F22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="G22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="H22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="I22" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J22" t="n">
         <v>109.5997839241957</v>
@@ -5914,10 +5914,10 @@
         <v>259.7851881688072</v>
       </c>
       <c r="L22" t="n">
-        <v>507.4972331799365</v>
+        <v>507.4972331799364</v>
       </c>
       <c r="M22" t="n">
-        <v>779.0639759471193</v>
+        <v>779.0639759471192</v>
       </c>
       <c r="N22" t="n">
         <v>1049.608084974667</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1446.590688732442</v>
       </c>
       <c r="S22" t="n">
-        <v>1348.33044553573</v>
+        <v>1446.590688732442</v>
       </c>
       <c r="T22" t="n">
-        <v>1124.545030325236</v>
+        <v>1222.805273521948</v>
       </c>
       <c r="U22" t="n">
-        <v>835.416391538794</v>
+        <v>933.6766347355065</v>
       </c>
       <c r="V22" t="n">
-        <v>835.416391538794</v>
+        <v>933.6766347355065</v>
       </c>
       <c r="W22" t="n">
-        <v>545.9992215018333</v>
+        <v>644.2594646985458</v>
       </c>
       <c r="X22" t="n">
-        <v>318.0096706038159</v>
+        <v>416.2699138005285</v>
       </c>
       <c r="Y22" t="n">
-        <v>97.21709146028587</v>
+        <v>416.2699138005285</v>
       </c>
     </row>
     <row r="23">
@@ -5963,22 +5963,22 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805471</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H23" t="n">
         <v>179.8222783822463</v>
@@ -5987,19 +5987,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J23" t="n">
-        <v>365.8813331823804</v>
+        <v>365.8813331823794</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514088</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515098</v>
       </c>
       <c r="N23" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
         <v>3889.732883643324</v>
@@ -6008,31 +6008,31 @@
         <v>4454.632848899128</v>
       </c>
       <c r="Q23" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
         <v>4860.854573014293</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231265</v>
       </c>
       <c r="T23" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465302</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851617</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="24">
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C24" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D24" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
         <v>358.2718071316295</v>
@@ -6066,16 +6066,16 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J24" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K24" t="n">
-        <v>97.21709146028587</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="L24" t="n">
-        <v>97.21709146028587</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="M24" t="n">
-        <v>417.5524109899877</v>
+        <v>323.6581146605669</v>
       </c>
       <c r="N24" t="n">
         <v>1128.069692924718</v>
@@ -6102,7 +6102,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V24" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W24" t="n">
         <v>1571.258395043133</v>
@@ -6121,37 +6121,37 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108333</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229669</v>
+        <v>559.3441472229675</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506722</v>
+        <v>478.0475988506728</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083202</v>
+        <v>398.9545963083208</v>
       </c>
       <c r="F25" t="n">
-        <v>320.884739850451</v>
+        <v>320.8847398504515</v>
       </c>
       <c r="G25" t="n">
-        <v>221.5295092103127</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H25" t="n">
-        <v>139.931591798297</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I25" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J25" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649692</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6166,10 +6166,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R25" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S25" t="n">
         <v>1865.165908942116</v>
@@ -6178,19 +6178,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U25" t="n">
-        <v>1489.892037025262</v>
+        <v>1489.892037025263</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W25" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010319</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C26" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D26" t="n">
-        <v>1701.093169003439</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E26" t="n">
-        <v>1315.304916405195</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F26" t="n">
-        <v>904.3190116155877</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J26" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K26" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L26" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M26" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
       </c>
       <c r="P26" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
-        <v>4860.854573014291</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S26" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T26" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141868</v>
       </c>
       <c r="U26" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V26" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W26" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X26" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y26" t="n">
         <v>2814.921224614724</v>
@@ -6300,19 +6300,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K27" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L27" t="n">
-        <v>323.6581146605672</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M27" t="n">
-        <v>323.6581146605672</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N27" t="n">
         <v>1128.069692924718</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108334</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229673</v>
+        <v>559.3441472229676</v>
       </c>
       <c r="D28" t="n">
-        <v>478.0475988506727</v>
+        <v>478.047598850673</v>
       </c>
       <c r="E28" t="n">
-        <v>398.9545963083206</v>
+        <v>398.954596308321</v>
       </c>
       <c r="F28" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504518</v>
       </c>
       <c r="G28" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103134</v>
       </c>
       <c r="H28" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982979</v>
       </c>
       <c r="I28" t="n">
         <v>97.21709146028584</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859416</v>
+        <v>1304.027639859417</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.2611010045207</v>
+        <v>924.261101004521</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.2886129010317</v>
+        <v>772.288612901032</v>
       </c>
     </row>
     <row r="29">
@@ -6437,7 +6437,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C29" t="n">
         <v>2059.358867610191</v>
@@ -6446,67 +6446,67 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E29" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F29" t="n">
-        <v>904.3190116155893</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G29" t="n">
         <v>488.193237080547</v>
       </c>
       <c r="H29" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I29" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823804</v>
+        <v>365.881333182379</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M29" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O29" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P29" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q29" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R29" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S29" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T29" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U29" t="n">
         <v>4262.357857465301</v>
       </c>
       <c r="V29" t="n">
-        <v>3931.29497012173</v>
+        <v>3931.294970121731</v>
       </c>
       <c r="W29" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X29" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y29" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="30">
@@ -6516,16 +6516,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C30" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D30" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E30" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F30" t="n">
         <v>358.2718071316295</v>
@@ -6537,22 +6537,22 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K30" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L30" t="n">
-        <v>97.21709146028587</v>
+        <v>327.180197328635</v>
       </c>
       <c r="M30" t="n">
-        <v>865.5852378527472</v>
+        <v>647.5155168583367</v>
       </c>
       <c r="N30" t="n">
-        <v>1128.069692924718</v>
+        <v>1451.927095122487</v>
       </c>
       <c r="O30" t="n">
         <v>1797.533454227377</v>
@@ -6576,7 +6576,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V30" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W30" t="n">
         <v>1571.258395043133</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108327</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C31" t="n">
-        <v>559.344147222967</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083201</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504511</v>
+        <v>320.8847398504508</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103125</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
       </c>
       <c r="I31" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6643,7 +6643,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S31" t="n">
         <v>1865.165908942116</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010313</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.3213845506</v>
       </c>
       <c r="C32" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610188</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003438</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405193</v>
       </c>
       <c r="F32" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155859</v>
       </c>
       <c r="G32" t="n">
-        <v>488.193237080547</v>
+        <v>488.193237080544</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822432</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
       </c>
       <c r="M32" t="n">
-        <v>2388.164701515097</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N32" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O32" t="n">
-        <v>3889.732883643323</v>
+        <v>3889.732883643322</v>
       </c>
       <c r="P32" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899125</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.627437207828</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014291</v>
       </c>
       <c r="S32" t="n">
-        <v>4726.561275231263</v>
+        <v>4726.561275231261</v>
       </c>
       <c r="T32" t="n">
-        <v>4515.972600141867</v>
+        <v>4515.972600141865</v>
       </c>
       <c r="U32" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465298</v>
       </c>
       <c r="V32" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.294970121728</v>
       </c>
       <c r="W32" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851613</v>
       </c>
       <c r="X32" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590533</v>
       </c>
       <c r="Y32" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614722</v>
       </c>
     </row>
     <row r="33">
@@ -6765,28 +6765,28 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F33" t="n">
-        <v>358.2718071316295</v>
+        <v>358.2718071316294</v>
       </c>
       <c r="G33" t="n">
         <v>221.3451287358148</v>
       </c>
       <c r="H33" t="n">
-        <v>125.4002551675025</v>
+        <v>125.4002551675024</v>
       </c>
       <c r="I33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="J33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="K33" t="n">
-        <v>97.21709146028583</v>
+        <v>97.21709146028581</v>
       </c>
       <c r="L33" t="n">
-        <v>323.6581146605672</v>
+        <v>323.6581146605673</v>
       </c>
       <c r="M33" t="n">
-        <v>323.6581146605672</v>
+        <v>323.6581146605673</v>
       </c>
       <c r="N33" t="n">
         <v>1128.069692924718</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108333</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506727</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504515</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982972</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028586</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J34" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254955</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L34" t="n">
-        <v>709.848946864969</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010319</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="35">
@@ -6911,22 +6911,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155889</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805471</v>
       </c>
       <c r="H35" t="n">
         <v>179.8222783822463</v>
@@ -6935,19 +6935,19 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J35" t="n">
-        <v>365.8813331823804</v>
+        <v>365.8813331823786</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M35" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N35" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619126</v>
       </c>
       <c r="O35" t="n">
         <v>3889.732883643324</v>
@@ -6962,25 +6962,25 @@
         <v>4860.854573014293</v>
       </c>
       <c r="S35" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T35" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U35" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V35" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W35" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X35" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y35" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="36">
@@ -7020,7 +7020,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="L36" t="n">
-        <v>327.180197328635</v>
+        <v>97.21709146028587</v>
       </c>
       <c r="M36" t="n">
         <v>783.5490372870998</v>
@@ -7069,16 +7069,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
         <v>320.8847398504512</v>
@@ -7093,7 +7093,7 @@
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254956</v>
@@ -7117,13 +7117,13 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S37" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942115</v>
       </c>
       <c r="T37" t="n">
-        <v>1710.200584771663</v>
+        <v>1710.200584771662</v>
       </c>
       <c r="U37" t="n">
         <v>1489.892037025262</v>
@@ -7138,7 +7138,7 @@
         <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7154,55 +7154,55 @@
         <v>2059.35886761019</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003439</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405195</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155877</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805471</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823804</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514077</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.627437207829</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014291</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231264</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T38" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U38" t="n">
         <v>4262.3578574653</v>
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C39" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D39" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E39" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F39" t="n">
         <v>358.2718071316295</v>
@@ -7248,19 +7248,19 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="J39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="K39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028583</v>
       </c>
       <c r="L39" t="n">
-        <v>97.21709146028587</v>
+        <v>323.6581146605673</v>
       </c>
       <c r="M39" t="n">
-        <v>323.6581146605672</v>
+        <v>323.6581146605673</v>
       </c>
       <c r="N39" t="n">
         <v>1128.069692924718</v>
@@ -7287,7 +7287,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V39" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W39" t="n">
         <v>1571.258395043133</v>
@@ -7306,43 +7306,43 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108331</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229669</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506722</v>
       </c>
       <c r="E40" t="n">
-        <v>398.9545963083205</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103129</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525399</v>
+        <v>177.0503551525398</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254954</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
       </c>
       <c r="N40" t="n">
-        <v>1386.860941116388</v>
+        <v>1386.860941116387</v>
       </c>
       <c r="O40" t="n">
         <v>1688.186490350129</v>
@@ -7372,10 +7372,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.2611010045207</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7412,13 +7412,13 @@
         <v>365.8813331823786</v>
       </c>
       <c r="K41" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514081</v>
       </c>
       <c r="L41" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M41" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515096</v>
       </c>
       <c r="N41" t="n">
         <v>3183.709822619129</v>
@@ -7497,10 +7497,10 @@
         <v>97.21709146028587</v>
       </c>
       <c r="M42" t="n">
-        <v>323.6581146605672</v>
+        <v>865.5852378527472</v>
       </c>
       <c r="N42" t="n">
-        <v>1128.069692924718</v>
+        <v>1210.105893490365</v>
       </c>
       <c r="O42" t="n">
         <v>1797.533454227377</v>
@@ -7543,16 +7543,16 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108334</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229675</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506729</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F43" t="n">
         <v>320.8847398504512</v>
@@ -7600,19 +7600,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U43" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V43" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045206</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="44">
@@ -7625,52 +7625,52 @@
         <v>2428.321384550602</v>
       </c>
       <c r="C44" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D44" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E44" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F44" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G44" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805466</v>
       </c>
       <c r="H44" t="n">
-        <v>179.8222783822463</v>
+        <v>179.822278382246</v>
       </c>
       <c r="I44" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028562</v>
       </c>
       <c r="J44" t="n">
-        <v>365.8813331823804</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K44" t="n">
-        <v>889.2841917514099</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L44" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M44" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N44" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O44" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P44" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q44" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R44" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S44" t="n">
         <v>4726.561275231264</v>
@@ -7679,16 +7679,16 @@
         <v>4515.972600141868</v>
       </c>
       <c r="U44" t="n">
-        <v>4262.3578574653</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V44" t="n">
-        <v>3931.294970121729</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W44" t="n">
-        <v>3578.526314851615</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X44" t="n">
-        <v>3205.060556590535</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y44" t="n">
         <v>2814.921224614724</v>
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>987.4312590525784</v>
+        <v>987.4312590525782</v>
       </c>
       <c r="C45" t="n">
-        <v>812.9782297714514</v>
+        <v>812.9782297714512</v>
       </c>
       <c r="D45" t="n">
-        <v>664.0438201102002</v>
+        <v>664.0438201101999</v>
       </c>
       <c r="E45" t="n">
-        <v>504.8063651047446</v>
+        <v>504.8063651047445</v>
       </c>
       <c r="F45" t="n">
         <v>358.2718071316295</v>
@@ -7722,16 +7722,16 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="M45" t="n">
         <v>323.6581146605672</v>
@@ -7761,7 +7761,7 @@
         <v>2060.647860003077</v>
       </c>
       <c r="V45" t="n">
-        <v>1825.495751771335</v>
+        <v>1825.495751771334</v>
       </c>
       <c r="W45" t="n">
         <v>1571.258395043133</v>
@@ -7801,10 +7801,10 @@
         <v>139.9315917982973</v>
       </c>
       <c r="I46" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J46" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K46" t="n">
         <v>394.6863306254956</v>
@@ -7831,7 +7831,7 @@
         <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942116</v>
+        <v>1865.165908942117</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
@@ -8055,13 +8055,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>370.8403453034592</v>
+        <v>327.4218609627885</v>
       </c>
       <c r="M3" t="n">
         <v>465.7050637499999</v>
@@ -8532,7 +8532,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>145.0294169142015</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
         <v>137.841438974359</v>
@@ -8775,10 +8775,10 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>393.8623192767295</v>
@@ -9009,10 +9009,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>367.2826860427847</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>142.1340339220183</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
         <v>479.3423743435536</v>
@@ -9246,10 +9246,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>370.8403453034592</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>465.7050637499999</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N18" t="n">
         <v>479.3423743435536</v>
@@ -9720,10 +9720,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>199.2814717474688</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
         <v>479.3423743435536</v>
@@ -9954,16 +9954,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>367.2826860427847</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N27" t="n">
-        <v>479.3423743435536</v>
+        <v>396.4775252873441</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10109,7 +10109,7 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720756</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
         <v>324.1454125711647</v>
@@ -10194,13 +10194,13 @@
         <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>396.4775252873441</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10425,16 +10425,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>367.2826860427847</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
@@ -10662,16 +10662,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>150.5542491702054</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N36" t="n">
         <v>479.3423743435536</v>
@@ -10899,16 +10899,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K39" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>367.2826860427848</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
         <v>479.3423743435536</v>
@@ -11139,13 +11139,13 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M42" t="n">
-        <v>370.8623401849288</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
         <v>479.3423743435536</v>
@@ -11382,7 +11382,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>370.8623401849288</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
@@ -22559,13 +22559,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>400.5176903172937</v>
+        <v>134.1892980606391</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22702,10 +22702,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>112.7712650795942</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -22714,19 +22714,19 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -22759,16 +22759,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
-        <v>197.6620873047944</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.20792265079217e-12</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23656,7 +23656,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>115.2640032163538</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -23716,7 +23716,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>192.3581855871786</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23941,19 +23941,19 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>185.2331835502361</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>189.3952778808841</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24127,10 +24127,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>58.16202639658744</v>
       </c>
       <c r="S22" t="n">
-        <v>158.8051956154452</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24193,7 +24193,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -26372,25 +26372,25 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>525160.036476896</v>
+        <v>525160.0364768961</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.410605131648481e-11</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371254</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925928</v>
+        <v>176423.2191925929</v>
       </c>
       <c r="K3" t="n">
-        <v>1.170374162029475e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26399,10 +26399,10 @@
         <v>134801.0152338373</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.51210371248</v>
+        <v>54505.51210371243</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>1.094354047381785e-10</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90335.72423892139</v>
+        <v>90335.72423892135</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,13 +26424,13 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="F4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="G4" t="n">
-        <v>787.7936905758694</v>
+        <v>787.7936905758695</v>
       </c>
       <c r="H4" t="n">
         <v>787.7936905758695</v>
@@ -26439,22 +26439,22 @@
         <v>23206.58093189635</v>
       </c>
       <c r="J4" t="n">
+        <v>23206.58093189636</v>
+      </c>
+      <c r="K4" t="n">
         <v>23206.58093189641</v>
       </c>
-      <c r="K4" t="n">
-        <v>23206.58093189636</v>
-      </c>
       <c r="L4" t="n">
-        <v>23206.58093189641</v>
+        <v>23206.5809318965</v>
       </c>
       <c r="M4" t="n">
         <v>23206.58093189635</v>
       </c>
       <c r="N4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189641</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="P4" t="n">
         <v>23206.58093189635</v>
@@ -26482,34 +26482,34 @@
         <v>91987.32594871662</v>
       </c>
       <c r="G5" t="n">
+        <v>91987.32594871662</v>
+      </c>
+      <c r="H5" t="n">
         <v>91987.32594871664</v>
-      </c>
-      <c r="H5" t="n">
-        <v>91987.32594871665</v>
       </c>
       <c r="I5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="J5" t="n">
+        <v>97715.10582002539</v>
+      </c>
+      <c r="K5" t="n">
         <v>97715.10582002538</v>
       </c>
-      <c r="K5" t="n">
-        <v>97715.1058200254</v>
-      </c>
       <c r="L5" t="n">
-        <v>97715.10582002538</v>
+        <v>97715.10582002536</v>
       </c>
       <c r="M5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="O5" t="n">
         <v>97715.1058200254</v>
       </c>
       <c r="P5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
     </row>
     <row r="6">
@@ -26519,25 +26519,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-763162.6815168753</v>
+        <v>-763376.0935067538</v>
       </c>
       <c r="C6" t="n">
         <v>-221918.2172440285</v>
       </c>
       <c r="D6" t="n">
-        <v>-221918.2172440286</v>
+        <v>-221918.2172440285</v>
       </c>
       <c r="E6" t="n">
-        <v>-617935.1561161885</v>
+        <v>-618032.6152421607</v>
       </c>
       <c r="F6" t="n">
-        <v>-92775.11963929249</v>
+        <v>-92872.57876526465</v>
       </c>
       <c r="G6" t="n">
-        <v>-92775.11963929253</v>
+        <v>-92872.57876526465</v>
       </c>
       <c r="H6" t="n">
-        <v>-92775.11963929252</v>
+        <v>-92872.57876526467</v>
       </c>
       <c r="I6" t="n">
         <v>-175427.1988556343</v>
@@ -26546,10 +26546,10 @@
         <v>-297344.9059445146</v>
       </c>
       <c r="K6" t="n">
+        <v>-120921.6867519218</v>
+      </c>
+      <c r="L6" t="n">
         <v>-120921.6867519219</v>
-      </c>
-      <c r="L6" t="n">
-        <v>-120921.6867519217</v>
       </c>
       <c r="M6" t="n">
         <v>-255722.701985759</v>
@@ -26558,7 +26558,7 @@
         <v>-175427.1988556342</v>
       </c>
       <c r="O6" t="n">
-        <v>-120921.6867519217</v>
+        <v>-120921.6867519219</v>
       </c>
       <c r="P6" t="n">
         <v>-120921.6867519217</v>
@@ -26698,10 +26698,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>68.13189012964067</v>
@@ -26710,19 +26710,19 @@
         <v>68.13189012964068</v>
       </c>
       <c r="K2" t="n">
+        <v>68.13189012964068</v>
+      </c>
+      <c r="L2" t="n">
         <v>68.13189012964069</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964065</v>
       </c>
       <c r="M2" t="n">
         <v>68.13189012964067</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P2" t="n">
         <v>68.13189012964067</v>
@@ -26744,40 +26744,40 @@
         <v>377.7436642170866</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="F3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="G3" t="n">
-        <v>830.3824054541003</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="H3" t="n">
         <v>830.3824054541003</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541</v>
       </c>
       <c r="L3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541</v>
       </c>
       <c r="M3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541</v>
       </c>
       <c r="N3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541</v>
       </c>
       <c r="O3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541</v>
       </c>
       <c r="P3" t="n">
-        <v>830.3824054541001</v>
+        <v>830.3824054541002</v>
       </c>
     </row>
     <row r="4">
@@ -26920,13 +26920,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964061</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>452.6387412370135</v>
+        <v>452.6387412370136</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,22 +27033,22 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545551</v>
+        <v>674.2872727545554</v>
       </c>
       <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>540.9263704990182</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0</v>
+      </c>
+      <c r="O4" t="n">
         <v>4.547473508864641e-13</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M4" t="n">
-        <v>540.9263704990179</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>0</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27157,13 +27157,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>4.263256414560601e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27379,13 +27379,13 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>203.0711961073332</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27394,10 +27394,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,7 +27433,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -27442,10 +27442,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>320.2830266611523</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27546,19 +27546,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I4" t="n">
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27591,16 +27591,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27613,28 +27613,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27661,25 +27661,25 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481172</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>192.6952634968389</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>262.7798830960552</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27777,7 +27777,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
@@ -27792,10 +27792,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>134.1320213729878</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>85.14112624278616</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>311.3058248248614</v>
+        <v>109.374797656348</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
         <v>400</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27913,13 +27913,13 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28029,10 +28029,10 @@
         <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,28 +28053,28 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.12274995491431</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>146.6651919801579</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
-        <v>56.01837628787186</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>160.1931355603112</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29566,7 +29566,7 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964069</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="32">
@@ -29767,7 +29767,7 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>2.984279490192421e-12</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29812,7 +29812,7 @@
         <v>0</v>
       </c>
       <c r="X32" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="Y32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964069</v>
       </c>
     </row>
     <row r="35">
@@ -30235,7 +30235,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964065</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964067</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -31127,10 +31127,10 @@
         <v>27.97441286890689</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K3" t="n">
-        <v>87.78329382423951</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,10 +31355,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31513,13 +31513,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H8" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
@@ -31537,22 +31537,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O8" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P8" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q8" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S8" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,22 +31592,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I9" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396475</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>176.4169820478007</v>
+        <v>132.9984977071305</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31625,16 +31625,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S9" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,19 +31671,19 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I10" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K10" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L10" t="n">
         <v>101.2724571246924</v>
@@ -31695,13 +31695,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P10" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R10" t="n">
         <v>30.62819939701163</v>
@@ -31710,7 +31710,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T10" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U10" t="n">
         <v>0.0371551145131561</v>
@@ -31759,40 +31759,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K11" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L11" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N11" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O11" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q11" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R11" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U11" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31832,13 +31832,13 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H12" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I12" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -31847,16 +31847,16 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N12" t="n">
-        <v>464.5362854813461</v>
+        <v>396.4775252873441</v>
       </c>
       <c r="O12" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q12" t="n">
         <v>227.9948068710956</v>
@@ -31868,7 +31868,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31914,7 +31914,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I13" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J13" t="n">
         <v>105.8669502822383</v>
@@ -31932,7 +31932,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O13" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P13" t="n">
         <v>181.1050413469073</v>
@@ -31944,10 +31944,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S13" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U13" t="n">
         <v>0.08167695791351813</v>
@@ -32084,10 +32084,10 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>369.693561916275</v>
       </c>
       <c r="N15" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>424.9599466855526</v>
@@ -32224,16 +32224,16 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H17" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I17" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J17" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961206</v>
       </c>
       <c r="K17" t="n">
         <v>424.6341946041488</v>
@@ -32242,7 +32242,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N17" t="n">
         <v>595.6470695927186</v>
@@ -32251,7 +32251,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P17" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q17" t="n">
         <v>360.4902833647496</v>
@@ -32260,7 +32260,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S17" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T17" t="n">
         <v>14.61306122562944</v>
@@ -32303,7 +32303,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H18" t="n">
         <v>17.25001940386726</v>
@@ -32324,7 +32324,7 @@
         <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>137.4075963926897</v>
+        <v>464.5362854813461</v>
       </c>
       <c r="O18" t="n">
         <v>424.9599466855526</v>
@@ -32339,10 +32339,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S18" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T18" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U18" t="n">
         <v>0.1175069441680331</v>
@@ -32403,7 +32403,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N19" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O19" t="n">
         <v>211.6522236065632</v>
@@ -32415,16 +32415,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R19" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S19" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T19" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U19" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32558,13 +32558,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>452.5584109724846</v>
+        <v>370.8623401849285</v>
       </c>
       <c r="N21" t="n">
         <v>464.5362854813462</v>
       </c>
       <c r="O21" t="n">
-        <v>343.2638758979964</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P21" t="n">
         <v>341.0678223458549</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J23" t="n">
-        <v>283.3273112961222</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104647</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,16 +32777,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H24" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -32798,13 +32798,13 @@
         <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>369.6935619162749</v>
+        <v>464.5362854813462</v>
       </c>
       <c r="O24" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P24" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>227.9948068710956</v>
@@ -32813,10 +32813,10 @@
         <v>110.8952201095118</v>
       </c>
       <c r="S24" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361488</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32862,7 +32862,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
@@ -32877,10 +32877,10 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
@@ -32889,16 +32889,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32944,40 +32944,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J26" t="n">
-        <v>283.3273112961203</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K26" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L26" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M26" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N26" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O26" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P26" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q26" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R26" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S26" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T26" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U26" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33017,31 +33017,31 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H27" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I27" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N27" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q27" t="n">
         <v>227.9948068710956</v>
@@ -33053,7 +33053,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T27" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U27" t="n">
         <v>0.1175069441680331</v>
@@ -33099,7 +33099,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I28" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J28" t="n">
         <v>105.8669502822383</v>
@@ -33117,7 +33117,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O28" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P28" t="n">
         <v>181.1050413469073</v>
@@ -33129,10 +33129,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S28" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T28" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U28" t="n">
         <v>0.08167695791351813</v>
@@ -33175,7 +33175,7 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I29" t="n">
         <v>128.6967545176651</v>
@@ -33187,16 +33187,16 @@
         <v>424.6341946041487</v>
       </c>
       <c r="L29" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N29" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O29" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P29" t="n">
         <v>480.0403130946991</v>
@@ -33211,7 +33211,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T29" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U29" t="n">
         <v>0.2670576580354892</v>
@@ -33257,7 +33257,7 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I30" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J30" t="n">
         <v>0.7465913262578567</v>
@@ -33266,16 +33266,16 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O30" t="n">
-        <v>424.9599466855525</v>
+        <v>97.83125759689682</v>
       </c>
       <c r="P30" t="n">
         <v>341.0678223458548</v>
@@ -33284,13 +33284,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R30" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T30" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33336,19 +33336,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I31" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J31" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K31" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L31" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M31" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N31" t="n">
         <v>229.144705426375</v>
@@ -33357,22 +33357,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P31" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q31" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S31" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33412,7 +33412,7 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I32" t="n">
         <v>128.6967545176651</v>
@@ -33424,16 +33424,16 @@
         <v>424.6341946041487</v>
       </c>
       <c r="L32" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N32" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O32" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P32" t="n">
         <v>480.0403130946991</v>
@@ -33448,7 +33448,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T32" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U32" t="n">
         <v>0.2670576580354892</v>
@@ -33494,25 +33494,25 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I33" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J33" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>367.2826860427848</v>
       </c>
       <c r="M33" t="n">
-        <v>142.1340339220183</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O33" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P33" t="n">
         <v>341.0678223458548</v>
@@ -33521,13 +33521,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R33" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33573,19 +33573,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I34" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J34" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K34" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L34" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M34" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N34" t="n">
         <v>229.144705426375</v>
@@ -33594,22 +33594,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P34" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S34" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33649,28 +33649,28 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H35" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I35" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J35" t="n">
-        <v>283.3273112961222</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K35" t="n">
         <v>424.6341946041487</v>
       </c>
       <c r="L35" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N35" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O35" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540907</v>
       </c>
       <c r="P35" t="n">
         <v>480.0403130946991</v>
@@ -33685,7 +33685,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T35" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U35" t="n">
         <v>0.2670576580354892</v>
@@ -33731,25 +33731,25 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I36" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J36" t="n">
-        <v>0.7465913262578567</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724845</v>
+        <v>369.693561916275</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P36" t="n">
         <v>341.0678223458548</v>
@@ -33758,13 +33758,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R36" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S36" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T36" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U36" t="n">
         <v>0.1175069441680331</v>
@@ -33810,19 +33810,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I37" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J37" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K37" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L37" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M37" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N37" t="n">
         <v>229.144705426375</v>
@@ -33831,22 +33831,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P37" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q37" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R37" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S37" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T37" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U37" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33886,28 +33886,28 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H38" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I38" t="n">
         <v>128.6967545176651</v>
       </c>
       <c r="J38" t="n">
-        <v>283.3273112961222</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K38" t="n">
         <v>424.6341946041487</v>
       </c>
       <c r="L38" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M38" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N38" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927184</v>
       </c>
       <c r="O38" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P38" t="n">
         <v>480.0403130946991</v>
@@ -33922,7 +33922,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T38" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U38" t="n">
         <v>0.2670576580354892</v>
@@ -33968,10 +33968,10 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I39" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -33980,13 +33980,13 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>370.8623401849288</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813461</v>
+        <v>464.536285481346</v>
       </c>
       <c r="O39" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855524</v>
       </c>
       <c r="P39" t="n">
         <v>341.0678223458548</v>
@@ -33995,13 +33995,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R39" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S39" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T39" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U39" t="n">
         <v>0.1175069441680331</v>
@@ -34047,19 +34047,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I40" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J40" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K40" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L40" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M40" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N40" t="n">
         <v>229.144705426375</v>
@@ -34068,22 +34068,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P40" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R40" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S40" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T40" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U40" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34123,7 +34123,7 @@
         <v>3.338220725443616</v>
       </c>
       <c r="H41" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444943</v>
       </c>
       <c r="I41" t="n">
         <v>128.6967545176651</v>
@@ -34132,19 +34132,19 @@
         <v>283.3273112961203</v>
       </c>
       <c r="K41" t="n">
-        <v>424.6341946041505</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L41" t="n">
-        <v>526.7962671304439</v>
+        <v>526.7962671304438</v>
       </c>
       <c r="M41" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565517</v>
       </c>
       <c r="N41" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927205</v>
       </c>
       <c r="O41" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540884</v>
       </c>
       <c r="P41" t="n">
         <v>480.0403130946991</v>
@@ -34159,7 +34159,7 @@
         <v>76.06970478104647</v>
       </c>
       <c r="T41" t="n">
-        <v>14.61306122562944</v>
+        <v>14.61306122562943</v>
       </c>
       <c r="U41" t="n">
         <v>0.2670576580354892</v>
@@ -34205,25 +34205,25 @@
         <v>17.25001940386725</v>
       </c>
       <c r="I42" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127062</v>
       </c>
       <c r="J42" t="n">
         <v>0.7465913262578567</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>452.5584109724844</v>
       </c>
       <c r="N42" t="n">
-        <v>464.5362854813461</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>424.9599466855525</v>
+        <v>342.0950976293431</v>
       </c>
       <c r="P42" t="n">
         <v>341.0678223458548</v>
@@ -34232,13 +34232,13 @@
         <v>227.9948068710956</v>
       </c>
       <c r="R42" t="n">
-        <v>110.8952201095118</v>
+        <v>110.8952201095117</v>
       </c>
       <c r="S42" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677463</v>
       </c>
       <c r="T42" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361487</v>
       </c>
       <c r="U42" t="n">
         <v>0.1175069441680331</v>
@@ -34284,19 +34284,19 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I43" t="n">
-        <v>45.03122946298629</v>
+        <v>45.03122946298628</v>
       </c>
       <c r="J43" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K43" t="n">
-        <v>173.9719203557934</v>
+        <v>173.9719203557933</v>
       </c>
       <c r="L43" t="n">
-        <v>222.6241616196124</v>
+        <v>222.6241616196123</v>
       </c>
       <c r="M43" t="n">
-        <v>234.7259642171319</v>
+        <v>234.7259642171318</v>
       </c>
       <c r="N43" t="n">
         <v>229.144705426375</v>
@@ -34305,22 +34305,22 @@
         <v>211.6522236065631</v>
       </c>
       <c r="P43" t="n">
-        <v>181.1050413469073</v>
+        <v>181.1050413469072</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3877432235691</v>
       </c>
       <c r="R43" t="n">
-        <v>67.32903897337668</v>
+        <v>67.32903897337667</v>
       </c>
       <c r="S43" t="n">
         <v>26.095788053369</v>
       </c>
       <c r="T43" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892243</v>
       </c>
       <c r="U43" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351812</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34366,40 +34366,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J44" t="n">
-        <v>283.3273112961222</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K44" t="n">
-        <v>424.6341946041487</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L44" t="n">
-        <v>526.7962671304439</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M44" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N44" t="n">
-        <v>595.6470695927185</v>
+        <v>595.6470695927186</v>
       </c>
       <c r="O44" t="n">
-        <v>562.4526372540885</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P44" t="n">
-        <v>480.0403130946991</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q44" t="n">
-        <v>360.4902833647495</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R44" t="n">
-        <v>209.6945076446477</v>
+        <v>209.6945076446478</v>
       </c>
       <c r="S44" t="n">
-        <v>76.06970478104647</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T44" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U44" t="n">
-        <v>0.2670576580354892</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34439,10 +34439,10 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H45" t="n">
-        <v>17.25001940386725</v>
+        <v>17.25001940386726</v>
       </c>
       <c r="I45" t="n">
-        <v>61.49530078127063</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
         <v>0.7465913262578567</v>
@@ -34454,16 +34454,16 @@
         <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>370.8623401849288</v>
       </c>
       <c r="N45" t="n">
         <v>464.5362854813461</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855525</v>
+        <v>424.9599466855526</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458548</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q45" t="n">
         <v>227.9948068710956</v>
@@ -34475,7 +34475,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T45" t="n">
-        <v>7.199258779361488</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U45" t="n">
         <v>0.1175069441680331</v>
@@ -34521,7 +34521,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I46" t="n">
-        <v>45.03122946298629</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J46" t="n">
         <v>105.8669502822383</v>
@@ -34539,7 +34539,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O46" t="n">
-        <v>211.6522236065631</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P46" t="n">
         <v>181.1050413469073</v>
@@ -34551,10 +34551,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S46" t="n">
-        <v>26.095788053369</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T46" t="n">
-        <v>6.398028369892244</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U46" t="n">
         <v>0.08167695791351813</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>214.4070918624591</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>408.7029475713857</v>
+        <v>365.284463230715</v>
       </c>
       <c r="M3" t="n">
         <v>529.4413268262938</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35027,7 +35027,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35185,10 +35185,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O8" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P8" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q8" t="n">
         <v>153.9975062898689</v>
@@ -35249,13 +35249,13 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.01733575770689</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>138.3897561047526</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>408.7029475713857</v>
+        <v>365.2844632307155</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
@@ -35264,7 +35264,7 @@
         <v>559.3197334338902</v>
       </c>
       <c r="O9" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
         <v>339.6412258735646</v>
@@ -35331,7 +35331,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L10" t="n">
         <v>128.8624823850085</v>
@@ -35346,7 +35346,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P10" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L11" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N11" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O11" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P11" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q11" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,10 +35495,10 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>228.7283062629105</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N12" t="n">
-        <v>812.5369477415663</v>
+        <v>265.1358132040107</v>
       </c>
       <c r="O12" t="n">
         <v>676.2260215178376</v>
@@ -35510,7 +35510,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R12" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.5077701655655</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K13" t="n">
         <v>151.7024285299105</v>
@@ -35574,7 +35574,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M13" t="n">
-        <v>274.3098411789724</v>
+        <v>274.3098411789725</v>
       </c>
       <c r="N13" t="n">
         <v>273.2768778056036</v>
@@ -35586,7 +35586,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187472</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35729,13 +35729,13 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>228.7283062629105</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>693.2645917442566</v>
       </c>
       <c r="N15" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O15" t="n">
         <v>676.2260215178376</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415081</v>
       </c>
       <c r="K17" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L17" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M17" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N17" t="n">
         <v>803.5809304081118</v>
@@ -35905,7 +35905,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R17" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35966,16 +35966,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>323.5710298279816</v>
+        <v>228.7283062629105</v>
       </c>
       <c r="N18" t="n">
-        <v>485.4082586529099</v>
+        <v>812.5369477415663</v>
       </c>
       <c r="O18" t="n">
-        <v>676.2260215178377</v>
+        <v>676.2260215178376</v>
       </c>
       <c r="P18" t="n">
         <v>525.5561835714618</v>
@@ -35984,7 +35984,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
-        <v>10.73738595686865</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,10 +36039,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>12.50777016556553</v>
+        <v>12.50777016556552</v>
       </c>
       <c r="K19" t="n">
-        <v>151.7024285299106</v>
+        <v>151.7024285299105</v>
       </c>
       <c r="L19" t="n">
         <v>250.2141868799285</v>
@@ -36054,13 +36054,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O19" t="n">
-        <v>236.2373515206029</v>
+        <v>236.2373515206028</v>
       </c>
       <c r="P19" t="n">
-        <v>178.3836006118008</v>
+        <v>178.3836006118007</v>
       </c>
       <c r="Q19" t="n">
-        <v>39.22569997187476</v>
+        <v>39.22569997187475</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,13 +36206,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>310.4243770504663</v>
+        <v>228.7283062629101</v>
       </c>
       <c r="N21" t="n">
         <v>812.5369477415665</v>
       </c>
       <c r="O21" t="n">
-        <v>594.5299507302815</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P21" t="n">
         <v>525.5561835714618</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.3780219415096</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
-        <v>528.6897561303329</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349805</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,22 +36434,22 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>60.72709196759461</v>
       </c>
       <c r="M24" t="n">
-        <v>323.5710298279816</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>717.6942241764951</v>
+        <v>812.5369477415665</v>
       </c>
       <c r="O24" t="n">
-        <v>676.2260215178376</v>
+        <v>676.2260215178377</v>
       </c>
       <c r="P24" t="n">
         <v>525.5561835714618</v>
@@ -36458,7 +36458,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R24" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686865</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520617</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K25" t="n">
         <v>219.8343186595512</v>
@@ -36522,16 +36522,16 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M25" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N25" t="n">
         <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P25" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q25" t="n">
         <v>107.3575901015154</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>271.3780219415078</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K26" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L26" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M26" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N26" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O26" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P26" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q26" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R26" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36677,13 +36677,13 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>228.7283062629105</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N27" t="n">
-        <v>812.5369477415663</v>
+        <v>265.1358132040107</v>
       </c>
       <c r="O27" t="n">
         <v>676.2260215178376</v>
@@ -36695,7 +36695,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R27" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.63966029520618</v>
+        <v>80.6396602952062</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36759,7 +36759,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M28" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N28" t="n">
         <v>341.4087679352443</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>271.3780219415096</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K29" t="n">
         <v>528.6897561303329</v>
       </c>
       <c r="L29" t="n">
-        <v>708.6910667109071</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N29" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O29" t="n">
-        <v>713.1546070951471</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P29" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q29" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R29" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M30" t="n">
-        <v>776.129440800466</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>265.1358132040107</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O30" t="n">
-        <v>676.2260215178376</v>
+        <v>349.0973324291819</v>
       </c>
       <c r="P30" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q30" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R30" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K31" t="n">
         <v>219.8343186595512</v>
@@ -37005,7 +37005,7 @@
         <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37072,25 +37072,25 @@
         <v>528.6897561303329</v>
       </c>
       <c r="L32" t="n">
-        <v>708.6910667109071</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N32" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O32" t="n">
-        <v>713.1546070951471</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P32" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q32" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37151,25 +37151,25 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>228.7283062629105</v>
+        <v>228.7283062629106</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O33" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R33" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37233,10 +37233,10 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M34" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N34" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O34" t="n">
         <v>304.3692416502435</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>271.3780219415096</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K35" t="n">
         <v>528.6897561303329</v>
       </c>
       <c r="L35" t="n">
-        <v>708.6910667109071</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M35" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N35" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O35" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951493</v>
       </c>
       <c r="P35" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q35" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R35" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>232.285965523585</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>460.9786262206716</v>
+        <v>693.2645917442566</v>
       </c>
       <c r="N36" t="n">
         <v>348.0006622602202</v>
@@ -37400,13 +37400,13 @@
         <v>676.2260215178376</v>
       </c>
       <c r="P36" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q36" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R36" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
       </c>
       <c r="L37" t="n">
-        <v>318.3460770095692</v>
+        <v>318.3460770095691</v>
       </c>
       <c r="M37" t="n">
         <v>342.4417313086131</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3780219415096</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K38" t="n">
         <v>528.6897561303329</v>
       </c>
       <c r="L38" t="n">
-        <v>708.6910667109071</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M38" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N38" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081116</v>
       </c>
       <c r="O38" t="n">
-        <v>713.1546070951471</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P38" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q38" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R38" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,25 +37625,25 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>228.7283062629106</v>
       </c>
       <c r="M39" t="n">
-        <v>228.7283062629105</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415663</v>
+        <v>812.5369477415662</v>
       </c>
       <c r="O39" t="n">
         <v>676.2260215178376</v>
       </c>
       <c r="P39" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q39" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R39" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37707,10 +37707,10 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M40" t="n">
-        <v>342.441731308613</v>
+        <v>342.4417313086131</v>
       </c>
       <c r="N40" t="n">
-        <v>341.4087679352442</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O40" t="n">
         <v>304.3692416502435</v>
@@ -37780,28 +37780,28 @@
         <v>271.3780219415078</v>
       </c>
       <c r="K41" t="n">
-        <v>528.6897561303347</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L41" t="n">
-        <v>708.6910667109071</v>
+        <v>708.691066710907</v>
       </c>
       <c r="M41" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221115</v>
       </c>
       <c r="N41" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081138</v>
       </c>
       <c r="O41" t="n">
-        <v>713.1546070951471</v>
+        <v>713.154607095147</v>
       </c>
       <c r="P41" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109121</v>
       </c>
       <c r="Q41" t="n">
         <v>350.4995841502047</v>
       </c>
       <c r="R41" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349802</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,22 +37865,22 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>228.7283062629105</v>
+        <v>776.129440800466</v>
       </c>
       <c r="N42" t="n">
-        <v>812.5369477415663</v>
+        <v>348.0006622602202</v>
       </c>
       <c r="O42" t="n">
-        <v>676.2260215178376</v>
+        <v>593.3611724616281</v>
       </c>
       <c r="P42" t="n">
-        <v>525.5561835714618</v>
+        <v>525.5561835714617</v>
       </c>
       <c r="Q42" t="n">
-        <v>298.0903205209232</v>
+        <v>298.0903205209231</v>
       </c>
       <c r="R42" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686861</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>271.3780219415096</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K44" t="n">
-        <v>528.6897561303329</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L44" t="n">
-        <v>708.6910667109071</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M44" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N44" t="n">
-        <v>803.5809304081117</v>
+        <v>803.5809304081118</v>
       </c>
       <c r="O44" t="n">
-        <v>713.1546070951471</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P44" t="n">
-        <v>570.6060255109122</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q44" t="n">
-        <v>350.4995841502047</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R44" t="n">
-        <v>59.82538970349805</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38117,7 +38117,7 @@
         <v>298.0903205209232</v>
       </c>
       <c r="R45" t="n">
-        <v>10.73738595686862</v>
+        <v>10.73738595686864</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
@@ -38181,7 +38181,7 @@
         <v>318.3460770095692</v>
       </c>
       <c r="M46" t="n">
-        <v>342.4417313086131</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N46" t="n">
         <v>341.4087679352443</v>
